--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail15 Features.xlsx
@@ -3427,7 +3427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3438,29 +3438,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3481,115 +3479,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3606,72 +3594,66 @@
         <v>2.026712292222936e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.3297604449268479</v>
+        <v>7.107249408837663e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9797772049600626</v>
+        <v>5.652383223164577e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.107249408837663e-07</v>
+        <v>-0.02055466429584512</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.652383223164577e-06</v>
+        <v>0.2477886424403779</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02055466429584512</v>
+        <v>0.0618191281580882</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2477886424403779</v>
+        <v>1.562462607569058</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.0618191281580882</v>
+        <v>1.350957373504597</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.485376512077193</v>
+        <v>3.827123097664076</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.350957373504597</v>
+        <v>9.363592215393127e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.827123097664076</v>
+        <v>5405066.073247417</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.363592215393127e-14</v>
+        <v>1.945338511055172e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5405066.073247417</v>
+        <v>2.735549050738157</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.945338511055172e-05</v>
+        <v>0.0001924198223272179</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2.735549050738157</v>
+        <v>11.23075929374105</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001924198223272179</v>
+        <v>1.14328375004397</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.23075929374105</v>
+        <v>0.02426990339923056</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.14328375004397</v>
+        <v>2.577228039950476</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02426990339923056</v>
+        <v>0.9437749203196282</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.577228039950476</v>
+        <v>1.861709966288663</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9437749203196282</v>
+        <v>4</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.861709966288663</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1378818201207992</v>
       </c>
     </row>
@@ -3686,72 +3668,66 @@
         <v>2.024962661346627e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3852841784168106</v>
+        <v>7.107249408837663e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9440040078354235</v>
+        <v>5.64812334212607e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.107249408837663e-07</v>
+        <v>-0.02201631487419643</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.64812334212607e-06</v>
+        <v>0.2481086978818433</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02201631487419643</v>
+        <v>0.06204172118199865</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2481086978818433</v>
+        <v>1.568805572012704</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06204172118199865</v>
+        <v>1.353904728079483</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.489937180879691</v>
+        <v>3.91351736230764</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.353904728079483</v>
+        <v>8.954736785206234e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.91351736230764</v>
+        <v>5703966.511892962</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.954736785206234e-14</v>
+        <v>1.848195414045523e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>5703966.511892962</v>
+        <v>2.913444564356722</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.848195414045523e-05</v>
+        <v>0.0001805634054239213</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2.913444564356722</v>
+        <v>9.084513749265708</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001805634054239213</v>
+        <v>1.427834130397764</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.084513749265708</v>
+        <v>0.01490160715349522</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.427834130397764</v>
+        <v>2.797999099800166</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01490160715349522</v>
+        <v>0.944236094178036</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.797999099800166</v>
+        <v>1.866294032207097</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.944236094178036</v>
+        <v>4</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.866294032207097</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1396636772936627</v>
       </c>
     </row>
@@ -3766,72 +3742,66 @@
         <v>2.021312022996971e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.446476675114749</v>
+        <v>7.107249408837663e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8930701202015969</v>
+        <v>5.643274365603439e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.107249408837663e-07</v>
+        <v>-0.0264291180607876</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.643274365603439e-06</v>
+        <v>0.2463626534368598</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0264291180607876</v>
+        <v>0.06138487202010623</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2463626534368598</v>
+        <v>1.573796107420227</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06138487202010623</v>
+        <v>1.345805175374233</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.494572471729906</v>
+        <v>4.00137244482066</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.345805175374233</v>
+        <v>8.565829002257691e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.00137244482066</v>
+        <v>6015018.410317001</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>8.565829002257691e-14</v>
+        <v>1.765860240996296e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>6015018.410317001</v>
+        <v>3.099155177426286</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.765860240996296e-05</v>
+        <v>0.0001629217393973141</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3.099155177426286</v>
+        <v>8.414512189438875</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001629217393973141</v>
+        <v>1.417683928045178</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.414512189438875</v>
+        <v>0.01153551334303641</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.417683928045178</v>
+        <v>2.859066992368814</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01153551334303641</v>
+        <v>0.9447262930899255</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.859066992368814</v>
+        <v>1.864914798947604</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9447262930899255</v>
+        <v>4</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.864914798947604</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1492011630790951</v>
       </c>
     </row>
@@ -3846,72 +3816,66 @@
         <v>2.005125791400151e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.516396551214909</v>
+        <v>7.107249408837663e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.795898614046767</v>
+        <v>5.637301704333652e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.107249408837663e-07</v>
+        <v>-0.03275060432754723</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.637301704333652e-06</v>
+        <v>0.2419568512792221</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03275060432754723</v>
+        <v>0.05960375418497341</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2419568512792221</v>
+        <v>1.595407122913937</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05960375418497341</v>
+        <v>1.373932678258557</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.519660839940006</v>
+        <v>3.701138999796958</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.373932678258557</v>
+        <v>8.208778340751404e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.701138999796958</v>
+        <v>6258725.878166032</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.208778340751404e-14</v>
+        <v>1.707301043580176e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>6258725.878166032</v>
+        <v>3.21551388955948</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.707301043580176e-05</v>
+        <v>0.0001597559291165419</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3.21551388955948</v>
+        <v>9.84553187819516</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001597559291165419</v>
+        <v>1.176683426922595</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.84553187819516</v>
+        <v>0.01548586078577336</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.176683426922595</v>
+        <v>2.695300564839145</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01548586078577336</v>
+        <v>0.9471382750891733</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.695300564839145</v>
+        <v>1.849173288758379</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9471382750891733</v>
+        <v>4</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.849173288758379</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.156872405641631</v>
       </c>
     </row>
@@ -3926,72 +3890,66 @@
         <v>1.965714342960737e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5811350745432109</v>
+        <v>7.107249408837663e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6545748696744838</v>
+        <v>5.63028255950269e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.107249408837663e-07</v>
+        <v>-0.0373373987196098</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.63028255950269e-06</v>
+        <v>0.2418533343236253</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0373373987196098</v>
+        <v>0.05987730499612051</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2418533343236253</v>
+        <v>1.635189555674532</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05987730499612051</v>
+        <v>1.469987873547258</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.563031480823623</v>
+        <v>3.727102450596058</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.469987873547258</v>
+        <v>8.51371576334946e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.727102450596058</v>
+        <v>5873231.02808377</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.51371576334946e-14</v>
+        <v>1.867828083332317e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>5873231.02808377</v>
+        <v>2.936792861279673</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.867828083332317e-05</v>
+        <v>0.0001776304157730891</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2.936792861279673</v>
+        <v>11.71445006814213</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001776304157730891</v>
+        <v>1.055654203649723</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.71445006814213</v>
+        <v>0.02437592716092449</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.055654203649723</v>
+        <v>2.42821662202443</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02437592716092449</v>
+        <v>0.9500706457069595</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.42821662202443</v>
+        <v>1.831886273743195</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9500706457069595</v>
+        <v>3</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.831886273743195</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1513717702781271</v>
       </c>
     </row>
@@ -4006,72 +3964,66 @@
         <v>1.900707873227007e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6168512648107699</v>
+        <v>7.107249408837663e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.5216255350686287</v>
+        <v>5.622866178316643e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.107249408837663e-07</v>
+        <v>-0.03875687834513715</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.622866178316643e-06</v>
+        <v>0.2498161258020363</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03875687834513715</v>
+        <v>0.06390731499158389</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2498161258020363</v>
+        <v>1.585111610995202</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06390731499158389</v>
+        <v>1.518850582778991</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.509851942147902</v>
+        <v>3.74095228647617</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.518850582778991</v>
+        <v>8.450793124438378e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.74095228647617</v>
+        <v>6062212.988493602</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.450793124438378e-14</v>
+        <v>1.744938075836466e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>6062212.988493602</v>
+        <v>3.10570250047155</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.744938075836466e-05</v>
+        <v>0.0002072833381375495</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.10570250047155</v>
+        <v>12.19833743752162</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002072833381375495</v>
+        <v>1.112836379230062</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.19833743752162</v>
+        <v>0.03084364385673833</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.112836379230062</v>
+        <v>2.465792126641809</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.03084364385673833</v>
+        <v>0.945688289299654</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.465792126641809</v>
+        <v>1.850679394269119</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.945688289299654</v>
+        <v>4</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.850679394269119</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1364370296664085</v>
       </c>
     </row>
@@ -4086,72 +4038,66 @@
         <v>1.821879721803196e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.6201796730114233</v>
+        <v>7.041386473081682e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.4295519473210301</v>
+        <v>5.615671450926343e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.041386473081682e-07</v>
+        <v>-0.03842088761798187</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.615671450926343e-06</v>
+        <v>0.2612376658553515</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03842088761798187</v>
+        <v>0.06972077986398441</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2612376658553515</v>
+        <v>1.607343425833302</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.06972077986398441</v>
+        <v>1.391721368629759</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.537825161530986</v>
+        <v>3.924759480390258</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.391721368629759</v>
+        <v>7.677780891832387e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.924759480390258</v>
+        <v>6484720.304991506</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.677780891832387e-14</v>
+        <v>1.652419167542238e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>6484720.304991506</v>
+        <v>3.22862951249556</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.652419167542238e-05</v>
+        <v>0.0002960589169053217</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3.22862951249556</v>
+        <v>10.66491456110756</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002960589169053217</v>
+        <v>1.670806968270207</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.66491456110756</v>
+        <v>0.03367386040086533</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.670806968270207</v>
+        <v>2.421804459369023</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.03367386040086533</v>
+        <v>0.9460185631334576</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.421804459369023</v>
+        <v>1.858154398862588</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9460185631334576</v>
+        <v>4</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.858154398862588</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1291548662963498</v>
       </c>
     </row>
@@ -4166,72 +4112,66 @@
         <v>1.742590406394069e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6114913100709919</v>
+        <v>6.825606732560674e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.3457360287504332</v>
+        <v>5.608856763781555e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.825606732560674e-07</v>
+        <v>-0.03806125147469779</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.608856763781555e-06</v>
+        <v>0.2729600592645272</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03806125147469779</v>
+        <v>0.07595500981601451</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2729600592645272</v>
+        <v>1.59120239139631</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.07595500981601451</v>
+        <v>1.360211732521224</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.516505171598534</v>
+        <v>5.15352050410533</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.360211732521224</v>
+        <v>3.850164556213462e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.15352050410533</v>
+        <v>12299694.90703704</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.850164556213462e-14</v>
+        <v>8.609423123077586e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>12299694.90703704</v>
+        <v>5.824624994783507</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.609423123077586e-06</v>
+        <v>0.0001672465151336459</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>5.824624994783507</v>
+        <v>8.90905071508385</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001672465151336459</v>
+        <v>1.685746069052049</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.90905071508385</v>
+        <v>0.01327455403372746</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.685746069052049</v>
+        <v>3.052116407667729</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01327455403372746</v>
+        <v>0.9445770182284835</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.052116407667729</v>
+        <v>1.883906504774375</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9445770182284835</v>
+        <v>5</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.883906504774375</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1816261652328743</v>
       </c>
     </row>
@@ -4246,72 +4186,66 @@
         <v>1.665446288438895e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.595475355726123</v>
+        <v>6.629683118260411e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.2588494645207478</v>
+        <v>5.602421956808194e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.629683118260411e-07</v>
+        <v>-0.03725174482754624</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5.602421956808194e-06</v>
+        <v>0.2856018975691221</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03725174482754624</v>
+        <v>0.0829547127874351</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2856018975691221</v>
+        <v>1.675025974036058</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0829547127874351</v>
+        <v>1.569430010208496</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.598896493165241</v>
+        <v>4.478233635251416</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.569430010208496</v>
+        <v>1.973011063931916e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.478233635251416</v>
+        <v>23250382.43659379</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.973011063931916e-14</v>
+        <v>4.741104613998008e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>23250382.43659379</v>
+        <v>10.66570880186097</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.741104613998008e-06</v>
+        <v>0.000122349419259342</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>10.66570880186097</v>
+        <v>8.708011870848077</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000122349419259342</v>
+        <v>1.22317413974288</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.708011870848077</v>
+        <v>0.009277691708128645</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.22317413974288</v>
+        <v>2.989742473580537</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.009277691708128645</v>
+        <v>0.953130523574686</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.989742473580537</v>
+        <v>1.800701712989539</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.953130523574686</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.800701712989539</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2140736958842284</v>
       </c>
     </row>
@@ -4326,72 +4260,66 @@
         <v>1.592634044819283e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.5709579774130714</v>
+        <v>6.427032375762827e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.1650179601538269</v>
+        <v>5.596636440711723e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.427032375762827e-07</v>
+        <v>-0.03298917013416041</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.596636440711723e-06</v>
+        <v>0.2985455187352649</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03298917013416041</v>
+        <v>0.09021042093461079</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2985455187352649</v>
+        <v>1.662585660972074</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.09021042093461079</v>
+        <v>1.656701431392595</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.601917950109449</v>
+        <v>4.573195250111826</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.656701431392595</v>
+        <v>1.891923310530004e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.573195250111826</v>
+        <v>25806459.55303172</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.891923310530004e-14</v>
+        <v>4.153611758715671e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>25806459.55303172</v>
+        <v>12.599705138774</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.153611758715671e-06</v>
+        <v>0.0001211622812556207</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>12.599705138774</v>
+        <v>8.08373704897123</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001211622812556207</v>
+        <v>1.312152115070118</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.08373704897123</v>
+        <v>0.007917567927419893</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.312152115070118</v>
+        <v>2.994239419194101</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.007917567927419893</v>
+        <v>0.9525045042068254</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.994239419194101</v>
+        <v>1.777029826891093</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9525045042068254</v>
+        <v>3</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.777029826891093</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2150236653076103</v>
       </c>
     </row>
@@ -4406,72 +4334,66 @@
         <v>1.532934135087983e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.555287688679735</v>
+        <v>6.427032375762827e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.02706237252927091</v>
+        <v>5.591938663454825e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.427032375762827e-07</v>
+        <v>-0.02769524956062518</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.591938663454825e-06</v>
+        <v>0.30808297030776</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02769524956062518</v>
+        <v>0.09567375952797766</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.30808297030776</v>
+        <v>1.591546141461329</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.09567375952797766</v>
+        <v>1.519714569907702</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.517218100705747</v>
+        <v>4.193189464376389</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.519714569907702</v>
+        <v>3.395506421896747e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.193189464376389</v>
+        <v>14914020.47175707</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.395506421896747e-14</v>
+        <v>6.965594333351534e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>14914020.47175707</v>
+        <v>7.552557249286107</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.965594333351534e-06</v>
+        <v>0.0001286597511822027</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7.552557249286107</v>
+        <v>8.146119209329235</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001286597511822027</v>
+        <v>1.482702674337265</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.146119209329235</v>
+        <v>0.008537765645122623</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.482702674337265</v>
+        <v>2.919724189523529</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008537765645122623</v>
+        <v>0.9458268663052596</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.919724189523529</v>
+        <v>1.866387228861095</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9458268663052596</v>
+        <v>3</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.866387228861095</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2293444966749744</v>
       </c>
     </row>
@@ -4486,72 +4408,66 @@
         <v>1.487668727254685e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.5667751798415456</v>
+        <v>6.427032375762827e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.169385593000158</v>
+        <v>5.587924677318379e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.427032375762827e-07</v>
+        <v>-0.02602444831275949</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.587924677318379e-06</v>
+        <v>0.3154798463100409</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.02602444831275949</v>
+        <v>0.1001906493720453</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.3154798463100409</v>
+        <v>1.563306256538445</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.1001906493720453</v>
+        <v>1.526082295859646</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.481364461051534</v>
+        <v>3.795051538123884</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.526082295859646</v>
+        <v>4.145321050095691e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.795051538123884</v>
+        <v>12747047.80811505</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.145321050095691e-14</v>
+        <v>8.070572772057665e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>12747047.80811505</v>
+        <v>6.735617258637674</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.070572772057665e-06</v>
+        <v>0.0001417242948599715</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>6.735617258637674</v>
+        <v>9.120767288315157</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001417242948599715</v>
+        <v>1.629513983079054</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.120767288315157</v>
+        <v>0.01178981675337121</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.629513983079054</v>
+        <v>2.987580315478115</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01178981675337121</v>
+        <v>0.9451942428618695</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.987580315478115</v>
+        <v>1.809635019814555</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9451942428618695</v>
+        <v>3</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.809635019814555</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2395880965192683</v>
       </c>
     </row>
@@ -4566,72 +4482,66 @@
         <v>1.455288996777176e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.6100832701009355</v>
+        <v>6.427032375762827e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.3991177185686321</v>
+        <v>5.584151779654549e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.427032375762827e-07</v>
+        <v>-0.02529479742993368</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.584151779654549e-06</v>
+        <v>0.3211878279647983</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02529479742993368</v>
+        <v>0.1037853232189514</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.3211878279647983</v>
+        <v>1.547496192686305</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.1037853232189514</v>
+        <v>1.524914196165016</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.461154992591142</v>
+        <v>3.798366498741395</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.524914196165016</v>
+        <v>4.138088688675261e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.798366498741395</v>
+        <v>12795388.01461162</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.138088688675261e-14</v>
+        <v>8.009008995054026e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>12795388.01461162</v>
+        <v>6.774959677744543</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.009008995054026e-06</v>
+        <v>0.000136800352788284</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>6.774959677744543</v>
+        <v>9.079834824709186</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000136800352788284</v>
+        <v>1.616132806139208</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.079834824709186</v>
+        <v>0.0112782862658052</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.616132806139208</v>
+        <v>3.023295732040526</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0112782862658052</v>
+        <v>0.9450575281811797</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.023295732040526</v>
+        <v>1.889798357056713</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9450575281811797</v>
+        <v>6</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.889798357056713</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2367715241987686</v>
       </c>
     </row>
@@ -4646,72 +4556,66 @@
         <v>1.43583493938491e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.6733712408944218</v>
+        <v>6.427032375762827e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.6032648650365138</v>
+        <v>5.58061434139443e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.427032375762827e-07</v>
+        <v>-0.02350530995571613</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.58061434139443e-06</v>
+        <v>0.3234453652997987</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02350530995571613</v>
+        <v>0.1051543771478874</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.3234453652997987</v>
+        <v>1.544064408560693</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.1051543771478874</v>
+        <v>1.52447728254879</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.457165091844379</v>
+        <v>3.790174205486283</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.52447728254879</v>
+        <v>4.155996611296766e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.790174205486283</v>
+        <v>12719787.65493478</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.155996611296766e-14</v>
+        <v>8.045610218519928e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>12719787.65493478</v>
+        <v>6.724111513639842</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.045610218519928e-06</v>
+        <v>0.0001260611604905759</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>6.724111513639842</v>
+        <v>8.280549646616702</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001260611604905759</v>
+        <v>1.529843230069741</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.280549646616702</v>
+        <v>0.008643698930797993</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.529843230069741</v>
+        <v>3.016822965179082</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.008643698930797993</v>
+        <v>0.9443333380347033</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.016822965179082</v>
+        <v>1.895245733028396</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9443333380347033</v>
+        <v>6</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.895245733028396</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2375501658137971</v>
       </c>
     </row>
@@ -4726,72 +4630,66 @@
         <v>1.42793079434658e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.7366844263505796</v>
+        <v>6.427032375762827e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.7343904109704158</v>
+        <v>5.577474693501973e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.427032375762827e-07</v>
+        <v>-0.02021998583706236</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.577474693501973e-06</v>
+        <v>0.3222649125911318</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02021998583706236</v>
+        <v>0.1042519883572501</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.3222649125911318</v>
+        <v>1.546756474910389</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.1042519883572501</v>
+        <v>1.517838485678035</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.458349388514345</v>
+        <v>3.759166525750826</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.517838485678035</v>
+        <v>4.224841286002148e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.759166525750826</v>
+        <v>12541931.34246873</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.224841286002148e-14</v>
+        <v>8.176212528481124e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>12541931.34246873</v>
+        <v>6.64567710883122</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.176212528481124e-06</v>
+        <v>0.0001199209961714464</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>6.64567710883122</v>
+        <v>7.780483356742686</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001199209961714464</v>
+        <v>1.504341908555687</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.780483356742686</v>
+        <v>0.007259527982201075</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.504341908555687</v>
+        <v>3.05151112523953</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.007259527982201075</v>
+        <v>0.9427236306659713</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.05151112523953</v>
+        <v>1.857550284621365</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9427236306659713</v>
+        <v>6</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.857550284621365</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2340461598810673</v>
       </c>
     </row>
@@ -4806,72 +4704,66 @@
         <v>1.427894228518181e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.7852513097302686</v>
+        <v>6.427032375762827e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.7894654559152334</v>
+        <v>5.574903226263211e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.427032375762827e-07</v>
+        <v>-0.01565060927284138</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5.574903226263211e-06</v>
+        <v>0.3192177283121881</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.01565060927284138</v>
+        <v>0.1021370092748604</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.3192177283121881</v>
+        <v>1.545146571734736</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.1021370092748604</v>
+        <v>1.510112086814712</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.457736808948367</v>
+        <v>3.708096726107653</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.510112086814712</v>
+        <v>4.342016001129043e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.708096726107653</v>
+        <v>12232719.86433909</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.342016001129043e-14</v>
+        <v>8.383893741568321e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>12232719.86433909</v>
+        <v>6.497368223830521</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.383893741568321e-06</v>
+        <v>0.0001218511140881464</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>6.497368223830521</v>
+        <v>7.798499527742575</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001218511140881464</v>
+        <v>1.533316341240279</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.798499527742575</v>
+        <v>0.007410569841687374</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.533316341240279</v>
+        <v>3.036723240390692</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.007410569841687374</v>
+        <v>0.9405539424138023</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.036723240390692</v>
+        <v>1.881173799990711</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9405539424138023</v>
+        <v>6</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.881173799990711</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2300201260519268</v>
       </c>
     </row>
@@ -5248,7 +5140,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.30077105510666</v>
+        <v>1.287645156876105</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.254289528744873</v>
@@ -5337,7 +5229,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.338526163133897</v>
+        <v>1.322151227601175</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.242641422162667</v>
@@ -5426,7 +5318,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.348748660652487</v>
+        <v>1.327852834017519</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.401626513710843</v>
@@ -5515,7 +5407,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.357281186279773</v>
+        <v>1.341808478511323</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.292700636255917</v>
@@ -5604,7 +5496,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.382880600328114</v>
+        <v>1.368177982662204</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.124851029390983</v>
@@ -5693,7 +5585,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.396458433580897</v>
+        <v>1.38421372312188</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.173009773604483</v>
@@ -5782,7 +5674,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.409513763469069</v>
+        <v>1.395575185151883</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.994858316037981</v>
@@ -5871,7 +5763,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.448816875595877</v>
+        <v>1.433846794624641</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.496480835024734</v>
@@ -5960,7 +5852,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.460390809605042</v>
+        <v>1.435843912985026</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.449444615434882</v>
@@ -6049,7 +5941,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.497337299241937</v>
+        <v>1.465918325514951</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.273767991425384</v>
@@ -6138,7 +6030,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.522642051628128</v>
+        <v>1.493981886722069</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.451128331745154</v>
@@ -6227,7 +6119,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.559793440011345</v>
+        <v>1.515162505616014</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.447977609304858</v>
@@ -6316,7 +6208,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.571145984618564</v>
+        <v>1.519488390903403</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.526016021729363</v>
@@ -6405,7 +6297,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.56498793134212</v>
+        <v>1.514933567759968</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.453577780706977</v>
@@ -6494,7 +6386,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.536807882760021</v>
+        <v>1.493432102672211</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.446900874347591</v>
@@ -6583,7 +6475,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.471575575084279</v>
+        <v>1.434880387635739</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.820916720908613</v>
@@ -6672,7 +6564,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.436210092565253</v>
+        <v>1.411280771694283</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.818330965127835</v>
@@ -6761,7 +6653,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.436676547248015</v>
+        <v>1.408951801864934</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.835569457466411</v>
@@ -6850,7 +6742,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.381200443703325</v>
+        <v>1.337482420987371</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.909220824442402</v>
@@ -6939,7 +6831,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.322937524635074</v>
+        <v>1.298495787462933</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.935512568897677</v>
@@ -7028,7 +6920,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.306189809964121</v>
+        <v>1.285827542500734</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.944757899680162</v>
@@ -7117,7 +7009,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.29473312413138</v>
+        <v>1.277706329043489</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.931937881168464</v>
@@ -7206,7 +7098,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.282432124976626</v>
+        <v>1.264465546500634</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.984746595008078</v>
@@ -7295,7 +7187,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.268632940287098</v>
+        <v>1.249650056129499</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.986886564001168</v>
@@ -7384,7 +7276,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.258414301629899</v>
+        <v>1.240157367685943</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.997247940545323</v>
@@ -7473,7 +7365,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.251138924872307</v>
+        <v>1.233674598940194</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.000391545147481</v>
@@ -7562,7 +7454,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.246643179237776</v>
+        <v>1.228397035671267</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.020370332443836</v>
@@ -7651,7 +7543,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.247600527483526</v>
+        <v>1.230773472013613</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.034239387467511</v>
@@ -7740,7 +7632,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.259478664110419</v>
+        <v>1.239229063166694</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.029921243686414</v>
@@ -7829,7 +7721,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.25975462476634</v>
+        <v>1.237488468586151</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.031800369159748</v>
@@ -7918,7 +7810,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.272020718139692</v>
+        <v>1.245045395886712</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.95467120377777</v>
@@ -8007,7 +7899,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.271094665612378</v>
+        <v>1.244982631923605</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.964459478854979</v>
@@ -8096,7 +7988,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.250678683497769</v>
+        <v>1.22689977260867</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.986912032998023</v>
@@ -8185,7 +8077,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.26039100260363</v>
+        <v>1.237410594406818</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.866932393293828</v>
@@ -8274,7 +8166,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.228042260691877</v>
+        <v>1.211367543989865</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.785033343985849</v>
@@ -8363,7 +8255,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.232509237578153</v>
+        <v>1.217382368562221</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.839008580748229</v>
@@ -8452,7 +8344,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.243189436669615</v>
+        <v>1.225859177009537</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.78955783985974</v>
@@ -8541,7 +8433,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.242706775334284</v>
+        <v>1.229739732053025</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.803890331323825</v>
@@ -8630,7 +8522,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.253941535808987</v>
+        <v>1.243175965302198</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.732261795166636</v>
@@ -8719,7 +8611,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.265611248751992</v>
+        <v>1.253337632228777</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.776811525555628</v>
@@ -8808,7 +8700,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.276843064038525</v>
+        <v>1.261823428213089</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.763636395236263</v>
@@ -8897,7 +8789,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.284965686021311</v>
+        <v>1.271921206950683</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.754955877190587</v>
@@ -8986,7 +8878,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.285536965257937</v>
+        <v>1.270176157305098</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.774684862691915</v>
@@ -9075,7 +8967,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.286040869011272</v>
+        <v>1.271276259654794</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.777515212941846</v>
@@ -9164,7 +9056,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.292206417169131</v>
+        <v>1.279781892362976</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.764564838548593</v>
@@ -9253,7 +9145,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.290907670775828</v>
+        <v>1.27912945876417</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.762417066903413</v>
@@ -9342,7 +9234,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.294284779713496</v>
+        <v>1.282389674022749</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.736002334267425</v>
@@ -9431,7 +9323,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.344443230889584</v>
+        <v>1.323574800317134</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.66245191099865</v>
@@ -9520,7 +9412,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.427015979031653</v>
+        <v>1.400334163281262</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.50369505601273</v>
@@ -9609,7 +9501,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.601519758637739</v>
+        <v>1.544104954810758</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.380495611901807</v>
@@ -9698,7 +9590,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.566407421576103</v>
+        <v>1.514879736255352</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.449077839316145</v>
@@ -9787,7 +9679,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.586620487573052</v>
+        <v>1.523309805086374</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.20896319449843</v>
@@ -9876,7 +9768,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.607183100369352</v>
+        <v>1.54000217264891</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.590509423966922</v>
@@ -9965,7 +9857,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.603409790088115</v>
+        <v>1.532528808551852</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.659512035177388</v>
@@ -10054,7 +9946,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.584508083907032</v>
+        <v>1.516745420296482</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.475810870667939</v>
@@ -10143,7 +10035,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.586546568404713</v>
+        <v>1.516462516373813</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.513784375059304</v>
@@ -10232,7 +10124,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.573668050426931</v>
+        <v>1.496047214622739</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.635635668287713</v>
@@ -10321,7 +10213,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.576907869657582</v>
+        <v>1.505669825520222</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.527991394505647</v>
@@ -10410,7 +10302,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.576065866440098</v>
+        <v>1.509956844524496</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.68089036429704</v>
@@ -10499,7 +10391,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.584528786037211</v>
+        <v>1.516713301849854</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.526384512757537</v>
@@ -10588,7 +10480,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.582960350264559</v>
+        <v>1.511088414975081</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.577660238990671</v>
@@ -10874,7 +10766,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.663091368627136</v>
+        <v>1.59052854679436</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.375373202175044</v>
@@ -10963,7 +10855,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.657786666996472</v>
+        <v>1.573356454757138</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.148767696756896</v>
@@ -11052,7 +10944,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.669778748221985</v>
+        <v>1.581956231580344</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.142099220226742</v>
@@ -11141,7 +11033,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.643575936914374</v>
+        <v>1.574781608099735</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.595685136639192</v>
@@ -11230,7 +11122,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.664308022758312</v>
+        <v>1.589110005475602</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.40333398526439</v>
@@ -11319,7 +11211,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.673913730243563</v>
+        <v>1.590125499676756</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.539029374000304</v>
@@ -11408,7 +11300,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.692849039007503</v>
+        <v>1.614006475351442</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.471493029490695</v>
@@ -11497,7 +11389,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.699051736157026</v>
+        <v>1.612036545367034</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.348061383362964</v>
@@ -11586,7 +11478,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.682604723530079</v>
+        <v>1.588067294339475</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.434785261340497</v>
@@ -11675,7 +11567,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.675125670560188</v>
+        <v>1.57476908630244</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.375696941391669</v>
@@ -11764,7 +11656,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.688102394615348</v>
+        <v>1.583413311890268</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.371933050497022</v>
@@ -11853,7 +11745,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.690754912473516</v>
+        <v>1.582012714100733</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.419514754853774</v>
@@ -11942,7 +11834,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.693160739127745</v>
+        <v>1.586148701212743</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.428621693572459</v>
@@ -12031,7 +11923,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.681488163362407</v>
+        <v>1.576299314085036</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.480101548144614</v>
@@ -12120,7 +12012,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.66149407348653</v>
+        <v>1.558694344204029</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.37529433493259</v>
@@ -12209,7 +12101,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.566249783451242</v>
+        <v>1.491707641960742</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.896742174036274</v>
@@ -12298,7 +12190,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.523888176300165</v>
+        <v>1.470183920159356</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.88453542115295</v>
@@ -12387,7 +12279,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.518152512350857</v>
+        <v>1.454948288917079</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.931389945605844</v>
@@ -12476,7 +12368,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.468401237490068</v>
+        <v>1.393411046244912</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.992005719294218</v>
@@ -12565,7 +12457,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.428850052375769</v>
+        <v>1.381764154744478</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.002032025235797</v>
@@ -12654,7 +12546,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.428205160751083</v>
+        <v>1.384215696095548</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.001433864245157</v>
@@ -12743,7 +12635,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.428982737508661</v>
+        <v>1.385756858661257</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.004121946079155</v>
@@ -12832,7 +12724,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.427552247023222</v>
+        <v>1.386723796282295</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.022575020258977</v>
@@ -12921,7 +12813,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.429917613177967</v>
+        <v>1.392838495718618</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.01711894272527</v>
@@ -13010,7 +12902,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.438728311861881</v>
+        <v>1.403806279762437</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.0247203812786</v>
@@ -13099,7 +12991,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.440276776760587</v>
+        <v>1.408743750412669</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.038401106689364</v>
@@ -13188,7 +13080,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.442400830581566</v>
+        <v>1.413343528035142</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.019594200860334</v>
@@ -13277,7 +13169,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.43623942201789</v>
+        <v>1.406646212647601</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.014305069776431</v>
@@ -13366,7 +13258,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.431935177470324</v>
+        <v>1.400678186024641</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.008726039829119</v>
@@ -13455,7 +13347,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.444427142846305</v>
+        <v>1.408326066660361</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.98763793447908</v>
@@ -13544,7 +13436,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.505384374631047</v>
+        <v>1.454346204194936</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.959958472287135</v>
@@ -13633,7 +13525,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.510135542521629</v>
+        <v>1.456666961816848</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.942516863981584</v>
@@ -13722,7 +13614,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.524182631647293</v>
+        <v>1.483492939722467</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.941571285359299</v>
@@ -13811,7 +13703,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.666989622195041</v>
+        <v>1.597787831728748</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.099060215498697</v>
@@ -13900,7 +13792,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.675310639366623</v>
+        <v>1.599039980513212</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.768526732841273</v>
@@ -13989,7 +13881,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.666767890612604</v>
+        <v>1.590989028007865</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.724786699167288</v>
@@ -14078,7 +13970,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.657538016722611</v>
+        <v>1.577159344245089</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.781832688130928</v>
@@ -14167,7 +14059,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.657287628380114</v>
+        <v>1.576255738959751</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.730094495391616</v>
@@ -14256,7 +14148,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.661372353307912</v>
+        <v>1.568831980893218</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.684184889107495</v>
@@ -14345,7 +14237,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.648692451082297</v>
+        <v>1.556025933007077</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.70501206707835</v>
@@ -14434,7 +14326,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.63805299402457</v>
+        <v>1.538156528744765</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.700439131760472</v>
@@ -14523,7 +14415,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.630462872070284</v>
+        <v>1.529895562378345</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.689701329031448</v>
@@ -14612,7 +14504,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.620821855549459</v>
+        <v>1.516721167737808</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.644018815131415</v>
@@ -14701,7 +14593,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.620344223844931</v>
+        <v>1.515287222418767</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.567308488867039</v>
@@ -14790,7 +14682,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.615823586110378</v>
+        <v>1.514479580685804</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.635285321355417</v>
@@ -14879,7 +14771,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.618824492022476</v>
+        <v>1.519250453001634</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.572126476742723</v>
@@ -14968,7 +14860,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.618172539838911</v>
+        <v>1.521178118156172</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.635879814617751</v>
@@ -15057,7 +14949,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.617247595854467</v>
+        <v>1.506444678264676</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.398511956956799</v>
@@ -15146,7 +15038,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.629252779081443</v>
+        <v>1.503527179276384</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.153652183452792</v>
@@ -15235,7 +15127,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.669593496818596</v>
+        <v>1.536279557256732</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.518229144290299</v>
@@ -15324,7 +15216,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.675491078258217</v>
+        <v>1.539672518719342</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.578128564197408</v>
@@ -15413,7 +15305,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.683128138940476</v>
+        <v>1.552970647422182</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.509485343933658</v>
@@ -15502,7 +15394,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.680263049306848</v>
+        <v>1.547170652374934</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.63847803193095</v>
@@ -15591,7 +15483,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.672017436309679</v>
+        <v>1.540365463215587</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.258521506565883</v>
@@ -15680,7 +15572,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.681961882732055</v>
+        <v>1.547767759487847</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.292074668150544</v>
@@ -15769,7 +15661,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.673687371676837</v>
+        <v>1.541450597028492</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.696764550290006</v>
@@ -15858,7 +15750,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.662858823946612</v>
+        <v>1.5288653408375</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.646325987174007</v>
@@ -15947,7 +15839,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.680112323014026</v>
+        <v>1.551911463941606</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.798813632342326</v>
@@ -16036,7 +15928,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.691077515922166</v>
+        <v>1.562622208840108</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.804391566711074</v>
@@ -16125,7 +16017,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.696085579393567</v>
+        <v>1.564349386781061</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.949282461183724</v>
@@ -16214,7 +16106,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.696067738077183</v>
+        <v>1.556019455440317</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.327608118265732</v>
@@ -16500,7 +16392,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.715407850669026</v>
+        <v>1.625634633181886</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.328377154714097</v>
@@ -16589,7 +16481,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.712058879895775</v>
+        <v>1.611372471186151</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.266142463174132</v>
@@ -16678,7 +16570,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.707749486813689</v>
+        <v>1.603510776942774</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.186590604675409</v>
@@ -16767,7 +16659,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.663921602630825</v>
+        <v>1.58326000527359</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.582693361534641</v>
@@ -16856,7 +16748,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.671348070025372</v>
+        <v>1.591632608665022</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.427174300689944</v>
@@ -16945,7 +16837,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.668283986035952</v>
+        <v>1.584372350994091</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.571676334328664</v>
@@ -17034,7 +16926,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.678736898011436</v>
+        <v>1.593955023291415</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.555679231436338</v>
@@ -17123,7 +17015,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.665384979478501</v>
+        <v>1.577869482837209</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.582504455506279</v>
@@ -17212,7 +17104,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.646468288945937</v>
+        <v>1.548660707847628</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.439843641017668</v>
@@ -17301,7 +17193,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.655084027706546</v>
+        <v>1.544976114352921</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.489081551491329</v>
@@ -17390,7 +17282,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.658683541646229</v>
+        <v>1.548877944653921</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.547527347075915</v>
@@ -17479,7 +17371,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.670617781622134</v>
+        <v>1.56149904572589</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.561832966468959</v>
@@ -17568,7 +17460,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.682582655357252</v>
+        <v>1.564473429751494</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.530275652571482</v>
@@ -17657,7 +17549,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.684541750603375</v>
+        <v>1.567820926743527</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.556187354952674</v>
@@ -17746,7 +17638,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.681079558095203</v>
+        <v>1.575618202887771</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.601689532646791</v>
@@ -17835,7 +17727,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.580966136209284</v>
+        <v>1.499455463267816</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.871434273680096</v>
@@ -17924,7 +17816,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.54643369502385</v>
+        <v>1.474785572588526</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.87224347366175</v>
@@ -18013,7 +17905,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.544767386455705</v>
+        <v>1.469345842589884</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.859198564027049</v>
@@ -18102,7 +17994,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.491740673103082</v>
+        <v>1.407908407945455</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.929545035214867</v>
@@ -18191,7 +18083,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.446812283758232</v>
+        <v>1.391505023837726</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.963313325480219</v>
@@ -18280,7 +18172,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.444235820194179</v>
+        <v>1.389843500430636</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.961637110474082</v>
@@ -18369,7 +18261,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.446152031048353</v>
+        <v>1.393190359556682</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.972073887968341</v>
@@ -18458,7 +18350,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.449333697393941</v>
+        <v>1.398431698947027</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.986817233831873</v>
@@ -18547,7 +18439,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.447662048450101</v>
+        <v>1.399730123158119</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.951767135962348</v>
@@ -18636,7 +18528,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.443205417750921</v>
+        <v>1.401600535255535</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.959708397926075</v>
@@ -18725,7 +18617,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.439314637341604</v>
+        <v>1.397876362789434</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.947452397301932</v>
@@ -18814,7 +18706,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.432953435408092</v>
+        <v>1.391486731187255</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.962452348225594</v>
@@ -18903,7 +18795,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.423770457994913</v>
+        <v>1.383387146292723</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.949308907970297</v>
@@ -18992,7 +18884,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.421854800651896</v>
+        <v>1.37815670568606</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.952872170486474</v>
@@ -19081,7 +18973,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.42371167836821</v>
+        <v>1.371513962046936</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.959261223678526</v>
@@ -19170,7 +19062,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.486650463227796</v>
+        <v>1.41213826261469</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.885852343493732</v>
@@ -19259,7 +19151,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.484200745384149</v>
+        <v>1.417853338213445</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.890808840334613</v>
@@ -19348,7 +19240,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.480690315594837</v>
+        <v>1.426846199953382</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.929807882641462</v>
@@ -19437,7 +19329,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.620373113089137</v>
+        <v>1.543662530239378</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.907657977317725</v>
@@ -19526,7 +19418,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.630952722396802</v>
+        <v>1.569149107944015</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.353653132000469</v>
@@ -19615,7 +19507,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.62411237992379</v>
+        <v>1.571268273974068</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.337849323215068</v>
@@ -19704,7 +19596,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618723193567051</v>
+        <v>1.564722098597428</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.378774853303803</v>
@@ -19793,7 +19685,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.612817479473703</v>
+        <v>1.558460678787976</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.364072864343274</v>
@@ -19882,7 +19774,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.616631034935049</v>
+        <v>1.560640945582749</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.354798393879511</v>
@@ -19971,7 +19863,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.617029678923791</v>
+        <v>1.55727907451839</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.319652262544413</v>
@@ -20060,7 +19952,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.615219644172399</v>
+        <v>1.551317420921103</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.274564406720498</v>
@@ -20149,7 +20041,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.619646726974997</v>
+        <v>1.553130116698276</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.328620382400388</v>
@@ -20238,7 +20130,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.619957981594391</v>
+        <v>1.555065215544238</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.28813162261123</v>
@@ -20327,7 +20219,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.617205491303491</v>
+        <v>1.559304205760721</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.371739109457479</v>
@@ -20416,7 +20308,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.612474776512333</v>
+        <v>1.559935710917327</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.256944561750931</v>
@@ -20505,7 +20397,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.605139761128699</v>
+        <v>1.555619298247693</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.312599368172875</v>
@@ -20594,7 +20486,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.609774073425335</v>
+        <v>1.561424597902966</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.314645370396895</v>
@@ -20683,7 +20575,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.643716196336796</v>
+        <v>1.564169278199819</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.421230528010098</v>
@@ -20772,7 +20664,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657262708525929</v>
+        <v>1.572209342264724</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.229162917666384</v>
@@ -20861,7 +20753,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.681780938735276</v>
+        <v>1.570270205435031</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.915601824139896</v>
@@ -20950,7 +20842,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.708387678852705</v>
+        <v>1.573345570835758</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.542658504624224</v>
@@ -21039,7 +20931,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.71212989731485</v>
+        <v>1.575690013031255</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.35541313103517</v>
@@ -21128,7 +21020,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.715728608051402</v>
+        <v>1.576591033829638</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.422214409652533</v>
@@ -21217,7 +21109,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.721207455736057</v>
+        <v>1.572455935350269</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.23985281322754</v>
@@ -21306,7 +21198,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.727772114956656</v>
+        <v>1.579291510137508</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.488403059780494</v>
@@ -21395,7 +21287,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.734692120252311</v>
+        <v>1.58849245272339</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.840257357505036</v>
@@ -21484,7 +21376,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.732483682463555</v>
+        <v>1.586988377805555</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.945253486110336</v>
@@ -21573,7 +21465,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.732828537293725</v>
+        <v>1.587537371788577</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.911864639911764</v>
@@ -21662,7 +21554,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.737426788736013</v>
+        <v>1.593438472671007</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.516296311491804</v>
@@ -21751,7 +21643,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.733641871622563</v>
+        <v>1.595238313551705</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.933248100145706</v>
@@ -21840,7 +21732,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.743448275695115</v>
+        <v>1.60293734306468</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.013826687563129</v>
@@ -22126,7 +22018,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.605032361134227</v>
+        <v>1.482118168601147</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.452642787113791</v>
@@ -22215,7 +22107,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.611486839968783</v>
+        <v>1.48210655151053</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.222246800756611</v>
@@ -22304,7 +22196,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.614238094003277</v>
+        <v>1.493679308205998</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.066867519556048</v>
@@ -22393,7 +22285,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.5667582262574</v>
+        <v>1.47690855728595</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.174325013092811</v>
@@ -22482,7 +22374,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.569805882212929</v>
+        <v>1.486905878699</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.14268663972628</v>
@@ -22571,7 +22463,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.571958037595001</v>
+        <v>1.491346668587719</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.247577373142331</v>
@@ -22660,7 +22552,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.594169975929699</v>
+        <v>1.511151474489496</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.118273703662629</v>
@@ -22749,7 +22641,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.613250684280221</v>
+        <v>1.516659119438348</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.267352051691694</v>
@@ -22838,7 +22730,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.607528830878633</v>
+        <v>1.512578806793639</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.147553543248449</v>
@@ -22927,7 +22819,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.616408252840037</v>
+        <v>1.513326973116407</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.274031806464975</v>
@@ -23016,7 +22908,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.62961295682225</v>
+        <v>1.512314476738238</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.206395746817168</v>
@@ -23105,7 +22997,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.631484231895574</v>
+        <v>1.512129933962656</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.280299848186819</v>
@@ -23194,7 +23086,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.6254914930175</v>
+        <v>1.50041114844784</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.258993300420434</v>
@@ -23283,7 +23175,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.62454142537938</v>
+        <v>1.496408229129273</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.307310072064747</v>
@@ -23372,7 +23264,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.579390583412148</v>
+        <v>1.469081945148422</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.272499426299445</v>
@@ -23461,7 +23353,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.447942254010406</v>
+        <v>1.385751174476801</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.629148306736489</v>
@@ -23550,7 +23442,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.415885488705914</v>
+        <v>1.36411007573499</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.640910398289869</v>
@@ -23639,7 +23531,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.419588828611018</v>
+        <v>1.359451106703729</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.638347697886541</v>
@@ -23728,7 +23620,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.420329379670295</v>
+        <v>1.354822723580802</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.700454237873207</v>
@@ -23817,7 +23709,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.390803558247154</v>
+        <v>1.345404375932229</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.709981337943619</v>
@@ -23906,7 +23798,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.389833868595806</v>
+        <v>1.345083825199853</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.714263108526007</v>
@@ -23995,7 +23887,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.384704902672183</v>
+        <v>1.338785196837953</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.703917129495373</v>
@@ -24084,7 +23976,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.380767777180097</v>
+        <v>1.339106919396277</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.706202538943176</v>
@@ -24173,7 +24065,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.379303346728627</v>
+        <v>1.337700216339651</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.705924955858003</v>
@@ -24262,7 +24154,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.379448454036763</v>
+        <v>1.336036338843301</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.693210343822595</v>
@@ -24351,7 +24243,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.377005999440971</v>
+        <v>1.336956524756695</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.696970660478229</v>
@@ -24440,7 +24332,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.375111499890391</v>
+        <v>1.332963899442583</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.700593135258232</v>
@@ -24529,7 +24421,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.373503437325631</v>
+        <v>1.332720992940547</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.70688146167228</v>
@@ -24618,7 +24510,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.373572023001276</v>
+        <v>1.329230408316946</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.695843136467996</v>
@@ -24707,7 +24599,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.390025188940176</v>
+        <v>1.337687137271111</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.768839734381612</v>
@@ -24796,7 +24688,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.460567891609831</v>
+        <v>1.3747906306328</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.75990458398894</v>
@@ -24885,7 +24777,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.488607876847691</v>
+        <v>1.389927319886242</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.914487731208024</v>
@@ -24974,7 +24866,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.484272997691322</v>
+        <v>1.394040860762722</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.916373938402157</v>
@@ -25063,7 +24955,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.586513744657243</v>
+        <v>1.435252633242683</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.922525457377545</v>
@@ -25152,7 +25044,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582194233745302</v>
+        <v>1.438129783155604</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.35605127601468</v>
@@ -25241,7 +25133,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.572186260491345</v>
+        <v>1.438601824113019</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.404768258613038</v>
@@ -25330,7 +25222,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.58265909450869</v>
+        <v>1.447988464007685</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.330274892830098</v>
@@ -25419,7 +25311,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.583918827282013</v>
+        <v>1.446591819711844</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.339169042011319</v>
@@ -25508,7 +25400,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.58460394206095</v>
+        <v>1.440114411136446</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.396213055757092</v>
@@ -25597,7 +25489,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.58061084073342</v>
+        <v>1.444096175911536</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.304969595810133</v>
@@ -25686,7 +25578,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.581479154925305</v>
+        <v>1.445189271438511</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.306722105787306</v>
@@ -25775,7 +25667,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.589027369366539</v>
+        <v>1.453760190028825</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.294313760811886</v>
@@ -25864,7 +25756,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.589244295934372</v>
+        <v>1.455149948829681</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.358702960800232</v>
@@ -25953,7 +25845,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.588965915866885</v>
+        <v>1.459357506753341</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.308033366221204</v>
@@ -26042,7 +25934,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.592031251270302</v>
+        <v>1.461792112226051</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.364068917655415</v>
@@ -26131,7 +26023,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.586624686839605</v>
+        <v>1.456904411391685</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.402867899855603</v>
@@ -26220,7 +26112,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.582134592925543</v>
+        <v>1.45834199386297</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.312121121987386</v>
@@ -26309,7 +26201,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.602717086161167</v>
+        <v>1.464886677948314</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.367088578373444</v>
@@ -26398,7 +26290,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.610687626196128</v>
+        <v>1.466206371840532</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.077953837786778</v>
@@ -26487,7 +26379,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.641967670995568</v>
+        <v>1.47931838699442</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.073252531518942</v>
@@ -26576,7 +26468,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.656894038879058</v>
+        <v>1.477203674547701</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.439856370412301</v>
@@ -26665,7 +26557,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.656091299041771</v>
+        <v>1.476118884925132</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.69294262073886</v>
@@ -26754,7 +26646,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.6600199771384</v>
+        <v>1.476628361247226</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.632168694980852</v>
@@ -26843,7 +26735,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.660455074961829</v>
+        <v>1.482791471332989</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.654075156597634</v>
@@ -26932,7 +26824,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.666062753861985</v>
+        <v>1.489530577308492</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.369523123533572</v>
@@ -27021,7 +26913,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.660340748344912</v>
+        <v>1.481947599458914</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.722041767189494</v>
@@ -27110,7 +27002,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.645236420053918</v>
+        <v>1.474733923985023</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.526879165518428</v>
@@ -27199,7 +27091,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.651973021882184</v>
+        <v>1.481449681151799</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.199067967880938</v>
@@ -27288,7 +27180,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.652172431194967</v>
+        <v>1.486225930258325</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.447107475372989</v>
@@ -27377,7 +27269,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.648056007287374</v>
+        <v>1.481255046580746</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.313068441254487</v>
@@ -27466,7 +27358,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.651501633191178</v>
+        <v>1.48847589378383</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.780937852662719</v>
@@ -27752,7 +27644,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.536756949161547</v>
+        <v>1.466968123144641</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.660455055361032</v>
@@ -27841,7 +27733,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.531840109702172</v>
+        <v>1.463516618734987</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.661251628953441</v>
@@ -27930,7 +27822,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.559454374333325</v>
+        <v>1.488708163910768</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.534419499888025</v>
@@ -28019,7 +27911,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.520545727134433</v>
+        <v>1.468148014718843</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.169648309806693</v>
@@ -28108,7 +28000,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.557663785884842</v>
+        <v>1.500399979489084</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.107498020110492</v>
@@ -28197,7 +28089,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.586306673690277</v>
+        <v>1.525867611703575</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.060228528903097</v>
@@ -28286,7 +28178,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.605545421300182</v>
+        <v>1.536249255372169</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.131206799475508</v>
@@ -28375,7 +28267,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.61168514208053</v>
+        <v>1.542556033375834</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.149658759782411</v>
@@ -28464,7 +28356,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.618301494419528</v>
+        <v>1.549508962467841</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.16006201535535</v>
@@ -28553,7 +28445,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.620897539105703</v>
+        <v>1.546337230955813</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.191988209579826</v>
@@ -28642,7 +28534,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.639052813383502</v>
+        <v>1.558647829970744</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.147125972583936</v>
@@ -28731,7 +28623,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.626564765847649</v>
+        <v>1.537517424678314</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.146792708365963</v>
@@ -28820,7 +28712,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.616460614620242</v>
+        <v>1.52370277258021</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.144726434194535</v>
@@ -28909,7 +28801,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.607654167000183</v>
+        <v>1.517486874621638</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.188093300637365</v>
@@ -28998,7 +28890,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.560512545483818</v>
+        <v>1.476482093162293</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.942593183032772</v>
@@ -29087,7 +28979,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.388946486270534</v>
+        <v>1.392107464395091</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.565877592824527</v>
@@ -29176,7 +29068,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.364397776620621</v>
+        <v>1.363258974805147</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.567012326486209</v>
@@ -29265,7 +29157,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.354607634568987</v>
+        <v>1.353442010647798</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.573473638400346</v>
@@ -29354,7 +29246,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.331752888227246</v>
+        <v>1.322790378528762</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.658717897123038</v>
@@ -29443,7 +29335,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.318081549037566</v>
+        <v>1.309584690604653</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.67347129394893</v>
@@ -29532,7 +29424,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.316694764130972</v>
+        <v>1.309612280141103</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.674399274423789</v>
@@ -29621,7 +29513,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.314105755940373</v>
+        <v>1.306695889676282</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.67697604392164</v>
@@ -29710,7 +29602,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.311748203368547</v>
+        <v>1.304053460268934</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.677247636155987</v>
@@ -29799,7 +29691,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.312157974666184</v>
+        <v>1.304619039916252</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.675731741595344</v>
@@ -29888,7 +29780,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.31373452058159</v>
+        <v>1.307291042247512</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.679032193490675</v>
@@ -29977,7 +29869,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.312912743390961</v>
+        <v>1.306892074154777</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.677903795684931</v>
@@ -30066,7 +29958,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.314993091053386</v>
+        <v>1.310303546872921</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.676013355588807</v>
@@ -30155,7 +30047,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.315943879890638</v>
+        <v>1.310229604262324</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.679428696638505</v>
@@ -30244,7 +30136,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.316285281219728</v>
+        <v>1.30965112335622</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.672694655427192</v>
@@ -30333,7 +30225,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.32740053339301</v>
+        <v>1.316738093224842</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.734952827235457</v>
@@ -30422,7 +30314,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.378497911711352</v>
+        <v>1.335035013119367</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.556541081194396</v>
@@ -30511,7 +30403,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.381585989875467</v>
+        <v>1.334726342768644</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.605890032500983</v>
@@ -30600,7 +30492,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.415017228019686</v>
+        <v>1.364225583230523</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.623439352267975</v>
@@ -30689,7 +30581,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.604430097685717</v>
+        <v>1.50474151082238</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.778815578241117</v>
@@ -30778,7 +30670,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.65454005653862</v>
+        <v>1.550263887210427</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.056538260948754</v>
@@ -30867,7 +30759,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.643391600033726</v>
+        <v>1.544347033168358</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.192684407329069</v>
@@ -30956,7 +30848,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.646678350682159</v>
+        <v>1.545006823137313</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.852113859033284</v>
@@ -31045,7 +30937,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.655846386658082</v>
+        <v>1.553921932390956</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.096375468746107</v>
@@ -31134,7 +31026,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.65621712709679</v>
+        <v>1.546214992377511</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.144111624234013</v>
@@ -31223,7 +31115,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.652254651994455</v>
+        <v>1.548842425689887</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.026713715774213</v>
@@ -31312,7 +31204,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.652290060155206</v>
+        <v>1.545425450763499</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.884347502352969</v>
@@ -31401,7 +31293,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.655163798521568</v>
+        <v>1.549972766874882</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.065353402737797</v>
@@ -31490,7 +31382,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.650506382829963</v>
+        <v>1.553035700745133</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.141819494921879</v>
@@ -31579,7 +31471,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.650614773813031</v>
+        <v>1.55447210253742</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.853370210563694</v>
@@ -31668,7 +31560,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.65182869151125</v>
+        <v>1.565761398579293</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.078789988867119</v>
@@ -31757,7 +31649,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.65196327834753</v>
+        <v>1.561844438710485</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.934596026971442</v>
@@ -31846,7 +31738,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.656048183886106</v>
+        <v>1.572488103589269</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.896601236396948</v>
@@ -31935,7 +31827,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.648683192960458</v>
+        <v>1.557470353314443</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.59507643671297</v>
@@ -32024,7 +31916,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.654608235187188</v>
+        <v>1.556985678510002</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.72223775339191</v>
@@ -32113,7 +32005,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.676084761416434</v>
+        <v>1.566088787618727</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.11716848478906</v>
@@ -32202,7 +32094,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.689916291022687</v>
+        <v>1.567552406689753</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.444756139385432</v>
@@ -32291,7 +32183,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.708452069271012</v>
+        <v>1.581804799651547</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.362091290680607</v>
@@ -32380,7 +32272,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.711433968569399</v>
+        <v>1.586544911631004</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.355767740387627</v>
@@ -32469,7 +32361,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.722575493736518</v>
+        <v>1.60335517357351</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.716724786368926</v>
@@ -32558,7 +32450,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.724306911282203</v>
+        <v>1.603191167297813</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.388142219503217</v>
@@ -32647,7 +32539,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.721717135413627</v>
+        <v>1.594396781084618</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.479409161387213</v>
@@ -32736,7 +32628,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.712850996937754</v>
+        <v>1.58825545528014</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.396157980415686</v>
@@ -32825,7 +32717,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.72664671204339</v>
+        <v>1.602122943601876</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.446768231711847</v>
@@ -32914,7 +32806,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.730614357062686</v>
+        <v>1.6092629532135</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.028583961925348</v>
@@ -33003,7 +32895,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.732103622997047</v>
+        <v>1.609695073153108</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.117601950846315</v>
@@ -33092,7 +32984,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.732936238551643</v>
+        <v>1.605121538176828</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.525033990355017</v>
@@ -33378,7 +33270,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.406653932311519</v>
+        <v>1.362168031491741</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.02431691637127</v>
@@ -33467,7 +33359,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.4802746178628</v>
+        <v>1.422089939461486</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.233278630917329</v>
@@ -33556,7 +33448,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.51339324679484</v>
+        <v>1.456890661404989</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.584282654396736</v>
@@ -33645,7 +33537,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.50504627630073</v>
+        <v>1.456730920493625</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.106922324811301</v>
@@ -33734,7 +33626,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.552132191976277</v>
+        <v>1.498042232888757</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.055993900504267</v>
@@ -33823,7 +33715,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.567233830680577</v>
+        <v>1.520134417157541</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.303418820977073</v>
@@ -33912,7 +33804,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.579225640277655</v>
+        <v>1.523964781193551</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.32042408385267</v>
@@ -34001,7 +33893,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.581496972901059</v>
+        <v>1.525166680283355</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.245105776148977</v>
@@ -34090,7 +33982,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.593161084730101</v>
+        <v>1.533925211587721</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.314033275785687</v>
@@ -34179,7 +34071,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.588092170061381</v>
+        <v>1.511655511232548</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.312373799957053</v>
@@ -34268,7 +34160,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.573887986242176</v>
+        <v>1.511990133046945</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.223660751486717</v>
@@ -34357,7 +34249,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.573679135752298</v>
+        <v>1.503322167985825</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.31303847572834</v>
@@ -34446,7 +34338,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.553252590549612</v>
+        <v>1.47954385518523</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.290942540181565</v>
@@ -34535,7 +34427,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.550744057866573</v>
+        <v>1.478479719186543</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.375261654564342</v>
@@ -34624,7 +34516,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.496136281784915</v>
+        <v>1.436752711268495</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.966550959766431</v>
@@ -34713,7 +34605,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.269620266084724</v>
+        <v>1.208038850271877</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.406245911220536</v>
@@ -34802,7 +34694,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.191013588731188</v>
+        <v>1.161344868158245</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.424007935853718</v>
@@ -34891,7 +34783,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.185180030065702</v>
+        <v>1.15702998754904</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.430357644671836</v>
@@ -34980,7 +34872,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.215000778596154</v>
+        <v>1.14810976973374</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.547321428839457</v>
@@ -35069,7 +34961,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.149711960126048</v>
+        <v>1.117543393079504</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.564584436416214</v>
@@ -35158,7 +35050,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.146480219238163</v>
+        <v>1.115092431797213</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.564455973459766</v>
@@ -35247,7 +35139,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.145576662062339</v>
+        <v>1.114237890191503</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.56618651939621</v>
@@ -35336,7 +35228,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.145302792424014</v>
+        <v>1.114442434100295</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.565476313395225</v>
@@ -35425,7 +35317,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.143830995996128</v>
+        <v>1.113428660935449</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.564854899380185</v>
@@ -35514,7 +35406,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.143205189919614</v>
+        <v>1.112602893853821</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.559413866528564</v>
@@ -35603,7 +35495,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.143092737440184</v>
+        <v>1.112782583766193</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.56457000656928</v>
@@ -35692,7 +35584,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.142424923119057</v>
+        <v>1.112692140951695</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.561527770310331</v>
@@ -35781,7 +35673,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.144248142945324</v>
+        <v>1.113746795703784</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.561608372944077</v>
@@ -35870,7 +35762,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.143435325375059</v>
+        <v>1.112169855666797</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.559832784510198</v>
@@ -35959,7 +35851,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.14823718805352</v>
+        <v>1.114987953077017</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.546810121968641</v>
@@ -36048,7 +35940,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.16113533165698</v>
+        <v>1.127929165253104</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.432247155314105</v>
@@ -36137,7 +36029,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.174119961835651</v>
+        <v>1.138739623351182</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.401161483383117</v>
@@ -36226,7 +36118,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.183541086026325</v>
+        <v>1.14378360614613</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.415746803197357</v>
@@ -36315,7 +36207,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.281984435555321</v>
+        <v>1.241280245798716</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.357556326960977</v>
@@ -36404,7 +36296,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.279042253992389</v>
+        <v>1.249656916822733</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.686048348860151</v>
@@ -36493,7 +36385,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.281369780814422</v>
+        <v>1.255247278098542</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.694985946040532</v>
@@ -36582,7 +36474,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.286854927328742</v>
+        <v>1.259178102859464</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.67815473796384</v>
@@ -36671,7 +36563,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.287291143270708</v>
+        <v>1.257899685887099</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.6810328986892</v>
@@ -36760,7 +36652,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.296015947184989</v>
+        <v>1.259785174134972</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.663018780541897</v>
@@ -36849,7 +36741,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.294948363033857</v>
+        <v>1.260476783979524</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.682665321053393</v>
@@ -36938,7 +36830,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.292062117718802</v>
+        <v>1.256415362558097</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.672856879298199</v>
@@ -37027,7 +36919,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.292849597102178</v>
+        <v>1.254078558259646</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.678632856627662</v>
@@ -37116,7 +37008,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.290130074406999</v>
+        <v>1.256144433760692</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.681685019778329</v>
@@ -37205,7 +37097,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.292233073649456</v>
+        <v>1.258708413431933</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.677532813483936</v>
@@ -37294,7 +37186,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.298531460328924</v>
+        <v>1.265737171924645</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.673689538304575</v>
@@ -37383,7 +37275,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.296253318509862</v>
+        <v>1.262916282125981</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.669585669005273</v>
@@ -37472,7 +37364,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.296466070918945</v>
+        <v>1.262669736105259</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.649576230814769</v>
@@ -37561,7 +37453,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.335050455170629</v>
+        <v>1.293771425401294</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.574606633787948</v>
@@ -37650,7 +37542,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.401013556911412</v>
+        <v>1.344301337190359</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.438103321233155</v>
@@ -37739,7 +37631,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.581853816029961</v>
+        <v>1.466410961054933</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.237708147433485</v>
@@ -37828,7 +37720,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.600856880355144</v>
+        <v>1.472663875001254</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.283839410980189</v>
@@ -37917,7 +37809,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.60488802477129</v>
+        <v>1.479823876017594</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.817795470667787</v>
@@ -38006,7 +37898,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.603527857865859</v>
+        <v>1.478907365889994</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.19463144841477</v>
@@ -38095,7 +37987,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.607210541570317</v>
+        <v>1.489164198816104</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.3097768424692</v>
@@ -38184,7 +38076,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.576468530965397</v>
+        <v>1.467868216963099</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.517375796701377</v>
@@ -38273,7 +38165,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.585312561826575</v>
+        <v>1.471357966769456</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.45503305422641</v>
@@ -38362,7 +38254,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.582089214792813</v>
+        <v>1.476227727171035</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.512158069519211</v>
@@ -38451,7 +38343,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.583509804475038</v>
+        <v>1.479369333627276</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.522544664304939</v>
@@ -38540,7 +38432,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.58348970662012</v>
+        <v>1.480544029051916</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.584475717954234</v>
@@ -38629,7 +38521,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.59368165823743</v>
+        <v>1.488232233414421</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.708820098667176</v>
@@ -38718,7 +38610,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.595223557200259</v>
+        <v>1.492631079949431</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.625187007217656</v>
